--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_34.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_34.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_0</t>
+          <t>model_1_34_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9935778670036771</v>
+        <v>0.8458417415866871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7997686900959736</v>
+        <v>0.6389899394440123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7489905686960545</v>
+        <v>0.7329468844964788</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9883277887683175</v>
+        <v>0.843504561472145</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0267323000478043</v>
+        <v>0.3653847687395274</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33894769130863</v>
+        <v>2.41407593723637</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8978461814111448</v>
+        <v>0.9552335095267673</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03585124359698614</v>
+        <v>0.5563781627510013</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2767547486212464</v>
+        <v>1.144107101361008</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1635001530513177</v>
+        <v>0.6044706516775876</v>
       </c>
       <c r="L2" t="n">
-        <v>1.411016511764664</v>
+        <v>0.7900823715222973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1660751170216849</v>
+        <v>0.6139904601925416</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2437654102063</v>
+        <v>36.01360863941379</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5789379534227</v>
+        <v>72.97819222763961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_1</t>
+          <t>model_1_34_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9934709392177613</v>
+        <v>0.843955549273872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7997007760266723</v>
+        <v>0.6331274508421518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7478334018518239</v>
+        <v>0.7291867463911714</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9869722933955902</v>
+        <v>0.8516969957459424</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02717738981131188</v>
+        <v>0.3698554078678477</v>
       </c>
       <c r="G3" t="n">
-        <v>1.339401833002763</v>
+        <v>2.453278425511288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9019853001165687</v>
+        <v>0.9686833055041175</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04001465306907726</v>
+        <v>0.5272521283273055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2977404019200915</v>
+        <v>1.216422665398455</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1648556635706274</v>
+        <v>0.6081573874153364</v>
       </c>
       <c r="L3" t="n">
-        <v>1.417859890063276</v>
+        <v>0.7875139394367618</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1674519754766604</v>
+        <v>0.6177352583327763</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2107398166058</v>
+        <v>35.98928627853672</v>
       </c>
       <c r="O3" t="n">
-        <v>278.5459123598222</v>
+        <v>72.95386986676255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_2</t>
+          <t>model_1_34_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9933403405410984</v>
+        <v>0.8443649293858468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7996138003626682</v>
+        <v>0.6310003048249386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7466047767583206</v>
+        <v>0.7281223288536254</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9854680757021873</v>
+        <v>0.8555626615103147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02772101028949246</v>
+        <v>0.3688850981414658</v>
       </c>
       <c r="G4" t="n">
-        <v>1.339983439668445</v>
+        <v>2.467502660723</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9063800208362541</v>
+        <v>0.9724906653174448</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0446348637454146</v>
+        <v>0.5135087755751541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.319067196032578</v>
+        <v>1.198478438691947</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1664962771040015</v>
+        <v>0.60735911793721</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4262182053697</v>
+        <v>0.7880713932062595</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1691184270331733</v>
+        <v>0.6169244169083461</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1711293181894</v>
+        <v>35.99454014116631</v>
       </c>
       <c r="O4" t="n">
-        <v>278.5063018614058</v>
+        <v>72.95912372939213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_3</t>
+          <t>model_1_34_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9931810649574963</v>
+        <v>0.8446077401782073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7995040372123818</v>
+        <v>0.6295697545811183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7453155626898558</v>
+        <v>0.727336567506885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9837823350017861</v>
+        <v>0.8580563863769747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02838399915839004</v>
+        <v>0.3683095897896771</v>
       </c>
       <c r="G5" t="n">
-        <v>1.340717426359823</v>
+        <v>2.477068756790505</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9109914648062261</v>
+        <v>0.9753012880936744</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04981262306555025</v>
+        <v>0.5046429960178043</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3409654085583801</v>
+        <v>1.185313396930646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1684755150114996</v>
+        <v>0.6068851537067594</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43641184272024</v>
+        <v>0.7884020291788354</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1711288359592024</v>
+        <v>0.6164429882150564</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1238594050116</v>
+        <v>35.99766283577128</v>
       </c>
       <c r="O5" t="n">
-        <v>278.4590319482281</v>
+        <v>72.9622464239971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_4</t>
+          <t>model_1_34_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9930076462504718</v>
+        <v>0.844319679713827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7994005856291981</v>
+        <v>0.6241479824927508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7439760561086759</v>
+        <v>0.7236544090446171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.982011640867684</v>
+        <v>0.8660383026051397</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02910585915610944</v>
+        <v>0.3689923485808303</v>
       </c>
       <c r="G6" t="n">
-        <v>1.341409207572922</v>
+        <v>2.513324171710383</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9157828021780522</v>
+        <v>0.9884721554093919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05525131719791324</v>
+        <v>0.4762654028557621</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3624162535990357</v>
+        <v>1.164570555861058</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1706043937186538</v>
+        <v>0.6074474039625408</v>
       </c>
       <c r="L6" t="n">
-        <v>1.447510639969806</v>
+        <v>0.7880097766315943</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1732912423778964</v>
+        <v>0.6170140933503222</v>
       </c>
       <c r="N6" t="n">
-        <v>137.0736315590024</v>
+        <v>35.9939587414198</v>
       </c>
       <c r="O6" t="n">
-        <v>278.4088041022188</v>
+        <v>72.95854232964562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_5</t>
+          <t>model_1_34_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9928026021884642</v>
+        <v>0.8434115436911802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7992718862734487</v>
+        <v>0.6185512445957526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7425548503534742</v>
+        <v>0.7191971975582082</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9800389070335247</v>
+        <v>0.8732931953226138</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0299593605382431</v>
+        <v>0.3711448058934267</v>
       </c>
       <c r="G7" t="n">
-        <v>1.342269820757426</v>
+        <v>2.550749583798218</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9208663727581643</v>
+        <v>1.004415342452305</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06131057707906474</v>
+        <v>0.4504725496002632</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3845137490420974</v>
+        <v>1.143933243889933</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1730877249785296</v>
+        <v>0.6092165509024083</v>
       </c>
       <c r="L7" t="n">
-        <v>1.460633459938293</v>
+        <v>0.7867731658773518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1758136836226947</v>
+        <v>0.6188111025859945</v>
       </c>
       <c r="N7" t="n">
-        <v>137.0158269288225</v>
+        <v>35.98232596029112</v>
       </c>
       <c r="O7" t="n">
-        <v>278.3509994720389</v>
+        <v>72.94690954851694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_6</t>
+          <t>model_1_34_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9925795924583062</v>
+        <v>0.8433877411792617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7991391765657707</v>
+        <v>0.617793892241761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7410835968823684</v>
+        <v>0.7185715229138961</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9779544930549643</v>
+        <v>0.8743093973160014</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03088764449367946</v>
+        <v>0.3712012224318739</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34315725118374</v>
+        <v>2.555814002476648</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9261289611161319</v>
+        <v>1.006653344376309</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06771286297151791</v>
+        <v>0.4468597120416511</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4064690124174959</v>
+        <v>1.135641753814937</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1757488107888058</v>
+        <v>0.6092628516755916</v>
       </c>
       <c r="L8" t="n">
-        <v>1.474906082668404</v>
+        <v>0.7867407539462288</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1785166788743728</v>
+        <v>0.6188581325500716</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9547980592301</v>
+        <v>35.9820219697724</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2899706024465</v>
+        <v>72.94660555799823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_7</t>
+          <t>model_1_34_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9923273386912818</v>
+        <v>0.8433597966420187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.798983492502028</v>
+        <v>0.6170341976424266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.739526022151332</v>
+        <v>0.7179345202340091</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9756829624288238</v>
+        <v>0.875314174978998</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03193765753329512</v>
+        <v>0.3712674563682403</v>
       </c>
       <c r="G9" t="n">
-        <v>1.344198311234847</v>
+        <v>2.560894083760468</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9317003156156771</v>
+        <v>1.008931866026727</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07468987839724361</v>
+        <v>0.4432874906697691</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4289066285793123</v>
+        <v>1.127006607765468</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1787111007556473</v>
+        <v>0.6093172050486022</v>
       </c>
       <c r="L9" t="n">
-        <v>1.491050323757968</v>
+        <v>0.7867027018104084</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1815256219469885</v>
+        <v>0.6189133419343736</v>
       </c>
       <c r="N9" t="n">
-        <v>136.887938956962</v>
+        <v>35.98166513890029</v>
       </c>
       <c r="O9" t="n">
-        <v>278.2231115001784</v>
+        <v>72.94624872712612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_8</t>
+          <t>model_1_34_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9920457022989836</v>
+        <v>0.8419806262003769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7988064503276661</v>
+        <v>0.611575995981122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.737911053854401</v>
+        <v>0.7126720170356895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9732250738406916</v>
+        <v>0.8816789024606657</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03310997653503587</v>
+        <v>0.3745363559916427</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34538219307001</v>
+        <v>2.59739310340232</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9374769635725569</v>
+        <v>1.027755534829649</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08223929305041532</v>
+        <v>0.4206593845986086</v>
       </c>
       <c r="J10" t="n">
-        <v>0.451800916534804</v>
+        <v>1.099299465169468</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1819614699188701</v>
+        <v>0.6119937548632688</v>
       </c>
       <c r="L10" t="n">
-        <v>1.50907505286505</v>
+        <v>0.7848246824856197</v>
       </c>
       <c r="M10" t="n">
-        <v>0.184827181175355</v>
+        <v>0.621632044733053</v>
       </c>
       <c r="N10" t="n">
-        <v>136.8158412722408</v>
+        <v>35.96413280397464</v>
       </c>
       <c r="O10" t="n">
-        <v>278.1510138154572</v>
+        <v>72.92871639220046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_9</t>
+          <t>model_1_34_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9917409133537362</v>
+        <v>0.8416163108259017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.798626877474227</v>
+        <v>0.6069883748430873</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7362407062237026</v>
+        <v>0.7075057175794415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9706217284270824</v>
+        <v>0.8875609718727983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03437866865652786</v>
+        <v>0.3753998536090977</v>
       </c>
       <c r="G11" t="n">
-        <v>1.346582997567813</v>
+        <v>2.628070547076411</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9434517001952449</v>
+        <v>1.046235088425394</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09023547892623826</v>
+        <v>0.3997472417049762</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4746972015900068</v>
+        <v>1.035243428113213</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1854148555443384</v>
+        <v>0.61269882781763</v>
       </c>
       <c r="L11" t="n">
-        <v>1.528581545360886</v>
+        <v>0.7843285934650577</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1883349541723052</v>
+        <v>0.622348221881631</v>
       </c>
       <c r="N11" t="n">
-        <v>136.740638008273</v>
+        <v>35.95952708957918</v>
       </c>
       <c r="O11" t="n">
-        <v>278.0758105514894</v>
+        <v>72.92411067780499</v>
       </c>
     </row>
   </sheetData>
